--- a/src/main/webapp/WEB-INF/template/Project_Description.xlsx
+++ b/src/main/webapp/WEB-INF/template/Project_Description.xlsx
@@ -397,7 +397,7 @@
   <dimension ref="A1:F498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4407,17 +4407,20 @@
       <c r="F498" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B498">
       <formula1>"Main Work,Electrical,Plumbing"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D498">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D498">
       <formula1>"BAG,CFT,CUM (m3),EACH,KG,LIT,MT,NOS,QUINTAL,RFT,RM,SQFT,SQM,UNIT"</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C498">
       <formula1>0.01</formula1>
       <formula2>200000</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"BAG,CFT,CUM,EACH,KG,LIT,MT,NOS,QUINTAL,RFT,RM,SQFT,SQM,UNIT"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
